--- a/Especial_Uniandes_2023/data/teaching-experience_es.xlsx
+++ b/Especial_Uniandes_2023/data/teaching-experience_es.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1775CDF3-2565-4EA3-81EB-6E1EA5CF5FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9AD8BB-D017-49E8-82C1-C900EFCFF78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>what</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Profesor Asociado</t>
   </si>
   <si>
-    <t>Profesor Asistente</t>
-  </si>
-  <si>
     <t>Profesor Catedrático</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
     <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}</t>
   </si>
   <si>
-    <t>Métodos cuantitativos II (Maestría en Psicología) (2019)</t>
-  </si>
-  <si>
-    <t>Métodos cuantitativos II (Maestría en Psicología) (2017-2018)</t>
-  </si>
-  <si>
     <t>Métodos cuantitativos I (Maestría en Psicología) (2017)</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>Fuentes y estilos de documentación en psicología (2015)</t>
   </si>
   <si>
-    <t>Evolución y desarrollo de la comunicación vocal: canciones, moda y lenguaje (2016)</t>
-  </si>
-  <si>
     <t>Estadística inferencial (2015 - 2016)</t>
   </si>
   <si>
@@ -126,10 +114,16 @@
     <t>2012 - 2014</t>
   </si>
   <si>
-    <t>2015 - 2018</t>
-  </si>
-  <si>
     <t>\textit{Recognised teacher in Psychology}</t>
+  </si>
+  <si>
+    <t>2015 - 2019</t>
+  </si>
+  <si>
+    <t>Evolución y desarrollo de la comunicación vocal: cantos, modas y lenguaje (2016)</t>
+  </si>
+  <si>
+    <t>Métodos cuantitativos II (Maestría en Psicología) (2017-2019)</t>
   </si>
 </sst>
 </file>
@@ -948,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,34 +978,26 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>2019</v>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1020,7 +1006,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,33 +1015,33 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,33 +1050,33 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1099,43 +1085,41 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -1151,13 +1135,6 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
